--- a/data/outputs/irr_scores.xlsx
+++ b/data/outputs/irr_scores.xlsx
@@ -472,19 +472,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.259</v>
+        <v>0.067</v>
       </c>
       <c r="C2" t="n">
-        <v>-0</v>
+        <v>-0.35</v>
       </c>
       <c r="D2" t="n">
-        <v>0.133</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.055</v>
+        <v>-0.08599999999999999</v>
       </c>
       <c r="F2" t="n">
-        <v>0.333</v>
+        <v>0</v>
       </c>
       <c r="G2" t="inlineStr"/>
     </row>
@@ -495,16 +495,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.869</v>
+        <v>0.619</v>
       </c>
       <c r="C3" t="n">
-        <v>0.55</v>
+        <v>0.357</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6</v>
+        <v>0.333</v>
       </c>
       <c r="E3" t="n">
-        <v>0.78</v>
+        <v>0.409</v>
       </c>
       <c r="F3" t="n">
         <v>0.667</v>
@@ -518,19 +518,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.457</v>
+        <v>0.8070000000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1</v>
+        <v>0.357</v>
       </c>
       <c r="D4" t="n">
         <v>0.333</v>
       </c>
       <c r="E4" t="n">
-        <v>0.172</v>
+        <v>0.658</v>
       </c>
       <c r="F4" t="n">
-        <v>0.333</v>
+        <v>0.667</v>
       </c>
       <c r="G4" t="inlineStr"/>
     </row>
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.155</v>
+        <v>0.391</v>
       </c>
       <c r="C5" t="n">
         <v>-0.286</v>
@@ -550,7 +550,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.044</v>
+        <v>0.122</v>
       </c>
       <c r="F5" t="n">
         <v>0.333</v>
@@ -568,21 +568,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.769</v>
+        <v>0.55</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.35</v>
+        <v>-0.125</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.299</v>
+        <v>0.232</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="inlineStr"/>
+        <v>0.667</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>No variation in binary labels for models mistral vs qwen:7b</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -594,7 +598,7 @@
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="n">
-        <v>0.125</v>
+        <v>0.24</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>

--- a/data/outputs/irr_scores.xlsx
+++ b/data/outputs/irr_scores.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,11 +459,6 @@
           <t>percent_agreement</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>cohen_notes</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -472,21 +467,20 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.067</v>
+        <v>0.9350000000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.35</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.08599999999999999</v>
+        <v>0.842</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="inlineStr"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -495,21 +489,20 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.619</v>
+        <v>0.899</v>
       </c>
       <c r="C3" t="n">
-        <v>0.357</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.333</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>0.409</v>
+        <v>0.823</v>
       </c>
       <c r="F3" t="n">
-        <v>0.667</v>
-      </c>
-      <c r="G3" t="inlineStr"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -518,21 +511,20 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8070000000000001</v>
+        <v>0.891</v>
       </c>
       <c r="C4" t="n">
-        <v>0.357</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.333</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.658</v>
+        <v>0.757</v>
       </c>
       <c r="F4" t="n">
-        <v>0.667</v>
-      </c>
-      <c r="G4" t="inlineStr"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -541,25 +533,20 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.391</v>
+        <v>0.52</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.286</v>
+        <v>-0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>0.133</v>
       </c>
       <c r="E5" t="n">
-        <v>0.122</v>
+        <v>0.3</v>
       </c>
       <c r="F5" t="n">
         <v>0.333</v>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>No variation in binary labels for models mistral vs qwen:7b</t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -568,24 +555,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.55</v>
+        <v>0.741</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.125</v>
+        <v>0.357</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>0.333</v>
       </c>
       <c r="E6" t="n">
-        <v>0.232</v>
+        <v>0.459</v>
       </c>
       <c r="F6" t="n">
         <v>0.667</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>No variation in binary labels for models mistral vs qwen:7b</t>
-        </is>
       </c>
     </row>
     <row r="7">
@@ -598,10 +580,9 @@
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="n">
-        <v>0.24</v>
+        <v>0.639</v>
       </c>
       <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/outputs/irr_scores.xlsx
+++ b/data/outputs/irr_scores.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,11 @@
           <t>percent_agreement</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>cohen_notes</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -467,20 +472,21 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9350000000000001</v>
+        <v>0.834</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0.357</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0.333</v>
       </c>
       <c r="E2" t="n">
-        <v>0.842</v>
+        <v>0.712</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
-      </c>
+        <v>0.667</v>
+      </c>
+      <c r="G2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -489,7 +495,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.899</v>
+        <v>0.958</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -498,11 +504,12 @@
         <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>0.823</v>
+        <v>0.923</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
+      <c r="G3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -511,7 +518,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.891</v>
+        <v>0.96</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -520,11 +527,12 @@
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.757</v>
+        <v>0.931</v>
       </c>
       <c r="F4" t="n">
         <v>1</v>
       </c>
+      <c r="G4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -533,19 +541,24 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.52</v>
+        <v>0.636</v>
       </c>
       <c r="C5" t="n">
-        <v>-0</v>
+        <v>-0.125</v>
       </c>
       <c r="D5" t="n">
-        <v>0.133</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3</v>
+        <v>0.452</v>
       </c>
       <c r="F5" t="n">
-        <v>0.333</v>
+        <v>0.667</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>No variation in binary labels for models gpt vs claude</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -555,19 +568,24 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.741</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.357</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.333</v>
+        <v>0.408</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="E6" t="n">
-        <v>0.459</v>
+        <v>0.158</v>
       </c>
       <c r="F6" t="n">
-        <v>0.667</v>
+        <v>1</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>No variation in binary labels for models claude vs gemini</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -580,9 +598,10 @@
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="n">
-        <v>0.639</v>
+        <v>0.77</v>
       </c>
       <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
